--- a/biology/Biologie cellulaire et moléculaire/Distorsion_de_ségrégation_méiotique/Distorsion_de_ségrégation_méiotique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Distorsion_de_ségrégation_méiotique/Distorsion_de_ségrégation_méiotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Distorsion_de_s%C3%A9gr%C3%A9gation_m%C3%A9iotique</t>
+          <t>Distorsion_de_ségrégation_méiotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En génétique, la distorsion de ségrégation méiotique (ou distorsion de ségrégation, ou distorsion méiotique)[1] correspond à la situation lors de laquelle, à l’issue de la méiose, l’un des deux allèles d’un locus d’une cellule hétérozygote a le pouvoir d’être surreprésenté dans les gamètes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En génétique, la distorsion de ségrégation méiotique (ou distorsion de ségrégation, ou distorsion méiotique) correspond à la situation lors de laquelle, à l’issue de la méiose, l’un des deux allèles d’un locus d’une cellule hétérozygote a le pouvoir d’être surreprésenté dans les gamètes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Distorsion_de_s%C3%A9gr%C3%A9gation_m%C3%A9iotique</t>
+          <t>Distorsion_de_ségrégation_méiotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mécanismes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La méiose est la division cellulaire qui, chez les individus à reproduction sexuée, permet la production de cellules haploïdes à partir d’une cellule diploïde contenant le génome biparental. La méiose est supposée assurer une répartition égale de l’information génétique initiale entre les deux cellules filles.
 Pour un locus donné, la génétique mendélienne montre que lors de la méiose, la moitié des gamètes (spermatozoïde ou ovule) reçoit un exemplaire du gène paternel et que l’autre moitié des gamètes reçoit un exemplaire du gène maternel. 
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Distorsion_de_s%C3%A9gr%C3%A9gation_m%C3%A9iotique</t>
+          <t>Distorsion_de_ségrégation_méiotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Cas des déterminants génétiques du sexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les espèces dont la détermination du sexe se fait grâce aux chromosomes sexuels, comme chez les mammifères et les oiseaux, l’un des sexes possède deux chromosomes sexuels identiques, alors que l’autre sexe possède deux chromosomes sexuels différents et détermine le sexe de sa descendance.
 Lorsque la méiose de l’individu hétérogamétique au niveau de ses chromosomes sexuels se passe normalement, une  moitié des gamètes récupère un chromosome et l’autre moitié des gamètes l’autre chromosome. Ce partage uniforme assure un nombre égal de mâles et de femelles dans la descendance de l’individu.
